--- a/all_video_detections.xlsx
+++ b/all_video_detections.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C494"/>
+  <dimension ref="A1:C471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.57</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.6</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.73</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.37</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.47</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.5</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.53</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
@@ -593,1721 +593,1721 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.57</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.07</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.37</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.43</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.47</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.53</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.57</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.63</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.67</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.73</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.77</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.83</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.87</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.93</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.97</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.03</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.07</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.13</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.17</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.23</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.27</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.33</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.37</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.47</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.53</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.57</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.67</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.97</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.67</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3.7</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3.9</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3.93</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3.97</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4.03</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4.07</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4.1</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.13</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4.17</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4.2</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4.23</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4.27</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.3</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4.33</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.37</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.4</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4.43</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4.47</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4.57</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.63</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4.67</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4.73</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4.77</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4.87</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4.97</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5.03</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5.07</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5.1</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5.13</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5.17</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5.2</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5.23</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5.27</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5.3</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5.33</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5.37</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5.4</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5.43</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5.47</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5.5</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5.53</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5.57</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5.6</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5.63</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5.67</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5.7</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5.73</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>5.77</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5.8</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5.83</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5.87</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5.9</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5.93</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>5.97</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6.03</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6.07</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6.1</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6.13</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Clip_002.mp4</t>
+          <t>Clip_001.mp4</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6.17</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="126">
@@ -2318,11 +2318,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6.2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="127">
@@ -2333,11 +2333,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6.23</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6.27</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="129">
@@ -2363,17 +2363,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2532,13 +2532,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2577,13 +2577,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2592,13 +2592,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2667,13 +2667,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2682,13 +2682,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2697,13 +2697,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2742,13 +2742,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.97</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2982,13 +2982,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3027,13 +3027,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3072,13 +3072,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4023,12 +4023,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4038,12 +4038,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4053,12 +4053,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4113,12 +4113,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4128,12 +4128,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4293,12 +4293,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4308,12 +4308,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4323,12 +4323,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4338,12 +4338,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4353,12 +4353,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4368,12 +4368,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4383,12 +4383,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4398,12 +4398,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4413,12 +4413,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4428,12 +4428,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4443,12 +4443,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4458,12 +4458,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4473,12 +4473,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -4488,12 +4488,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4503,12 +4503,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4518,12 +4518,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4533,247 +4533,247 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>7.03</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>7.07</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>7.13</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>7.17</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>7.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>7.33</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>7.37</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>7.43</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>7.47</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>7.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>7.53</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>7.57</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>7.63</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>7.97</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>8</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -4782,28 +4782,28 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>8.029999999999999</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>8.07</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>8.1</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4827,13 +4827,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>8.130000000000001</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -4842,13 +4842,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>8.17</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>8.199999999999999</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>8.23</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4887,13 +4887,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>8.27</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>8.300000000000001</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4917,28 +4917,28 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8.33</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>8.369999999999999</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4947,28 +4947,28 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>8.4</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>8.43</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4977,223 +4977,223 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>8.470000000000001</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8.5</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>8.529999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>8.57</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>8.6</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>8.630000000000001</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>8.67</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>8.699999999999999</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>8.73</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>8.77</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>8.800000000000001</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>8.83</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>8.869999999999999</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>8.9</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>8.93</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5202,13 +5202,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>8.970000000000001</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5217,13 +5217,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>9</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>9.029999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5247,28 +5247,28 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>9.07</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>9.1</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>9.130000000000001</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>9.17</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5307,13 +5307,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>9.199999999999999</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5322,13 +5322,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>9.23</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>9.27</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>9.300000000000001</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -5367,13 +5367,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>9.33</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>9.369999999999999</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5397,13 +5397,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>9.4</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>9.43</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>9.470000000000001</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>9.5</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5457,13 +5457,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>9.529999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>9.57</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>9.6</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>9.630000000000001</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5517,13 +5517,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>9.67</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>9.699999999999999</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>9.73</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>9.77</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>9.800000000000001</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>9.83</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5607,13 +5607,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>9.869999999999999</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -5622,43 +5622,43 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>9.9</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>9.93</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>9.970000000000001</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Clip_003.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -5667,28 +5667,28 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>10</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2.33</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5697,13 +5697,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2.63</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -5712,28 +5712,28 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2.67</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2.73</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2.77</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -5772,13 +5772,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5787,13 +5787,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2.83</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2.87</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5817,238 +5817,238 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>3</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3.03</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>4.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>4.93</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>4.97</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>5.03</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>5.07</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>5.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>5.13</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>5.17</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>5.47</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>5.53</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>5.57</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>5.67</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6057,118 +6057,118 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>5.77</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>5.83</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>5.87</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>5.9</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5.93</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>5.97</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>6</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>6.03</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>6.07</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>6.1</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6207,163 +6207,163 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>6.13</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>6.23</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>6.27</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>6.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>6.33</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>6.4</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>6.43</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>6.47</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>6.5</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>6.53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6372,913 +6372,913 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>6.57</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>6.63</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>6.67</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>6.7</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>6.77</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>6.87</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>7.03</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>7.07</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>7.1</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>7.13</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>7.17</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>7.2</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>7.23</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>7.27</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>7.3</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>7.37</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>7.5</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>7.53</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>7.57</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>7.6</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7.67</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>7.73</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>7.77</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>7.8</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>7.83</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>7.87</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>7.9</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>7.93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>7.97</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>8</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>8.029999999999999</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>8.07</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>8.130000000000001</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>8.17</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>8.199999999999999</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>8.27</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>8.300000000000001</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>8.9</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Clip_004.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>8.93</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.03</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.07000000000000001</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.1</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0.13</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.17</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.2</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0.23</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0.27</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.3</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.33</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0.6</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0.7</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.73</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>1.43</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1.47</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1.5</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1.53</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1.57</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>5.53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>5.73</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7287,562 +7287,217 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>5.77</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>5.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>6.03</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>6.93</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>6.97</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>7</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>7.03</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>7.07</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>7.67</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>7.8</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>7.83</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>7.93</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>8</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>8.029999999999999</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Clip_005.mp4</t>
+          <t>Clip_002.mp4</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>8.07</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C472" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C473" t="n">
-        <v>8.130000000000001</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C474" t="n">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C475" t="n">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C476" t="n">
-        <v>8.57</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C477" t="n">
-        <v>8.93</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C478" t="n">
-        <v>8.970000000000001</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C479" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C480" t="n">
-        <v>9.029999999999999</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C481" t="n">
-        <v>9.07</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C482" t="n">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C483" t="n">
-        <v>9.130000000000001</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C484" t="n">
-        <v>9.17</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C485" t="n">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C486" t="n">
-        <v>9.23</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C487" t="n">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C488" t="n">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C489" t="n">
-        <v>9.33</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C490" t="n">
-        <v>9.369999999999999</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C491" t="n">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C492" t="n">
-        <v>9.43</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C493" t="n">
-        <v>9.470000000000001</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>Clip_005.mp4</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="C494" t="n">
-        <v>9.5</v>
+        <v>11.53</v>
       </c>
     </row>
   </sheetData>
